--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69570</v>
+        <v>69571</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191357970</v>
+        <v>191359921</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134740</v>
+        <v>134741</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296788602</v>
+        <v>296792831</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9693</v>
+        <v>9694</v>
       </c>
       <c r="D122" t="n">
         <v>1445</v>
       </c>
       <c r="E122" t="n">
-        <v>31946051</v>
+        <v>31947576</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50572</v>
+        <v>50573</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168512301</v>
+        <v>168517372</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284950</v>
+        <v>284958</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1208988928</v>
+        <v>1209031755</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562575</v>
+        <v>562583</v>
       </c>
       <c r="D169" t="n">
         <v>60954</v>
       </c>
       <c r="E169" t="n">
-        <v>1284366736</v>
+        <v>1284389559</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367312</v>
+        <v>367327</v>
       </c>
       <c r="D170" t="n">
-        <v>38109</v>
+        <v>38110</v>
       </c>
       <c r="E170" t="n">
-        <v>2844507154</v>
+        <v>2844804389</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115123</v>
+        <v>115128</v>
       </c>
       <c r="D171" t="n">
-        <v>20263</v>
+        <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>445199838</v>
+        <v>445409607</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54385</v>
+        <v>54387</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151851439</v>
+        <v>151858805</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357185</v>
+        <v>357191</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1016836480</v>
+        <v>1016884274</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125521</v>
+        <v>125524</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>812271333</v>
+        <v>812307519</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235675</v>
+        <v>235683</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>812450213</v>
+        <v>812488760</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11726703</v>
+        <v>11756409</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11123</v>
+        <v>11125</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44077924</v>
+        <v>44114295</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8979,13 +8979,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="D209" t="n">
         <v>1136</v>
       </c>
       <c r="E209" t="n">
-        <v>12210515</v>
+        <v>12211202</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -10537,13 +10537,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>29423</v>
+        <v>29424</v>
       </c>
       <c r="D247" t="n">
         <v>3751</v>
       </c>
       <c r="E247" t="n">
-        <v>99441778</v>
+        <v>99451778</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -11234,13 +11234,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>47470</v>
+        <v>47471</v>
       </c>
       <c r="D264" t="n">
         <v>7784</v>
       </c>
       <c r="E264" t="n">
-        <v>81940860</v>
+        <v>81946515</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
